--- a/fichier.xlsx
+++ b/fichier.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fache\output\UnimakersInventory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA96ADB-9B2B-42AD-9865-C37785604C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">Nom d'outil </t>
+  </si>
+  <si>
+    <t>Date d'emprunt</t>
+  </si>
+  <si>
+    <t>Date de Depot</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>Emprunteur</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,32 +71,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0"/>
@@ -98,35 +103,32 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:E1048576" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:E1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:E1048576" totalsRowShown="0">
+  <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Nom d'outil "/>
-    <tableColumn id="2" name="Date d'emprunt"/>
-    <tableColumn id="3" name="Date de Depot"/>
-    <tableColumn id="4" name="Etat"/>
-    <tableColumn id="5" name="Emprunteur"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom d'outil "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date d'emprunt"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date de Depot"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Etat"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Emprunteur"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -394,147 +396,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="19.33203125" customWidth="1" min="1" max="1"/>
-    <col width="16.109375" customWidth="1" min="2" max="2"/>
-    <col width="16.33203125" customWidth="1" min="3" max="3"/>
-    <col width="10.6640625" customWidth="1" min="4" max="4"/>
-    <col width="14.88671875" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nom d'outil </t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Date d'emprunt</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date de Depot</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Etat</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Emprunteur</t>
-        </is>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>marteau Falcom</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>02/07/2023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bon état</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>QUENTIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tournevis</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Endommagé</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ordinateur</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>02/07/2023</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Endommagé</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ordinateur</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12/07/2023</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>À réparer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" priority="3" operator="containsText" dxfId="2" text="Bon état">
-      <formula>NOT(ISERROR(SEARCH("Bon état",D2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="À réparer">
+      <formula>NOT(ISERROR(SEARCH("À réparer",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="2" operator="containsText" dxfId="1" text="Endommagé">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Endommagé">
       <formula>NOT(ISERROR(SEARCH("Endommagé",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="À réparer">
-      <formula>NOT(ISERROR(SEARCH("À réparer",D2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Bon état">
+      <formula>NOT(ISERROR(SEARCH("Bon état",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
